--- a/data/trans_camb/P15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.3572634161021701</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.585152278635461</v>
+        <v>1.585152278635464</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.895753830438589</v>
@@ -664,7 +664,7 @@
         <v>2.158708244084325</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.730940598256725</v>
+        <v>2.730940598256723</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8662034348343735</v>
+        <v>1.195712640782493</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.481280438613743</v>
+        <v>-4.348331618800696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.738773259481479</v>
+        <v>-2.330118636967763</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2925836428336998</v>
+        <v>-0.8099049805917558</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.0845339337399169</v>
+        <v>-0.02520758172354993</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6600112636214487</v>
+        <v>-0.5934981313568524</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.61121799896194</v>
+        <v>1.183458426142028</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.141259310022496</v>
+        <v>-1.241849540412212</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6397582105091658</v>
+        <v>-0.3104084199630005</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.00030355183421</v>
+        <v>10.35133333880751</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.835341880389012</v>
+        <v>3.97024952220515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.33842102869297</v>
+        <v>5.982970991316408</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.86471999766351</v>
+        <v>8.815527647069306</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.726176842033096</v>
+        <v>9.764759550268307</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.346395047342959</v>
+        <v>7.432509788387988</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.623617152455415</v>
+        <v>8.210420134781996</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.686797473201199</v>
+        <v>5.289955154382107</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.253496344103285</v>
+        <v>5.461726747553708</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.05181355167136346</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2298930307282563</v>
+        <v>0.2298930307282567</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6809638385268766</v>
@@ -769,7 +769,7 @@
         <v>0.3414897673938798</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4320121870201014</v>
+        <v>0.4320121870201011</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08222177435247353</v>
+        <v>0.1201128185683348</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.504220161051715</v>
+        <v>-0.48938741704862</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3293758805724696</v>
+        <v>-0.3012097482978681</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06151220495272304</v>
+        <v>-0.1702164598577973</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05564110680122041</v>
+        <v>-0.09042467012065278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09131336871976642</v>
+        <v>-0.07291077746531717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1581336700657667</v>
+        <v>0.1084437286585589</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.162555929891612</v>
+        <v>-0.200106792159263</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0686748750789494</v>
+        <v>-0.05390744161628649</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.257988741717119</v>
+        <v>2.206337213555728</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7600252268125584</v>
+        <v>0.8291090156021141</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.274639682543336</v>
+        <v>1.199365173843987</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.401628345454851</v>
+        <v>2.613614974196627</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.561567750385549</v>
+        <v>2.519710651903203</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.108514272405543</v>
+        <v>2.218170499664601</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.69714513301351</v>
+        <v>1.623546356876148</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.125716065205004</v>
+        <v>1.05177103249525</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.149337073814221</v>
+        <v>1.13735951249637</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.1811670347772201</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6109845617613796</v>
+        <v>0.6109845617613789</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.105899127035224</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.597339298382882</v>
+        <v>-0.6277265869873365</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.767593935113292</v>
+        <v>-2.727915287766519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.376898501968394</v>
+        <v>-2.007968351711089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1659531753715502</v>
+        <v>-0.3189955030570171</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.924494800908815</v>
+        <v>-2.777971834812905</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007603208936360337</v>
+        <v>0.145306453019287</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2063475162459038</v>
+        <v>0.2516824961822512</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.272174093665709</v>
+        <v>-2.139017035886318</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1905861256013766</v>
+        <v>-0.1314786577671287</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.445978576907604</v>
+        <v>5.221117903972575</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.446320418287052</v>
+        <v>2.388569030423488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.511953917887441</v>
+        <v>3.764326108553783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.132640146221013</v>
+        <v>4.720553580554055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.629625749092581</v>
+        <v>1.659067515859365</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.165678795608867</v>
+        <v>5.282910659576599</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.175516006391047</v>
+        <v>4.210718918775557</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.203343550487403</v>
+        <v>1.324595570013476</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.57780587056287</v>
+        <v>3.648649741983146</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.04479556721401768</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1510727381323262</v>
+        <v>0.1510727381323261</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5736896025612881</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1273343073800101</v>
+        <v>-0.1330049463603624</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5026964247273104</v>
+        <v>-0.5175403127738101</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4538978475495679</v>
+        <v>-0.3944540144272842</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07343099389044291</v>
+        <v>-0.07869279680441064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6189206347122507</v>
+        <v>-0.6134028600026976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.004683187848767368</v>
+        <v>-0.006085127426337048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03596406021145387</v>
+        <v>0.04246030497593767</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4442531590914982</v>
+        <v>-0.4518387613854635</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06293591089627389</v>
+        <v>-0.03526075151691907</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.080065273519779</v>
+        <v>2.046242668785181</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.038147335738517</v>
+        <v>0.8548819946647033</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.367601259745222</v>
+        <v>1.472735167654057</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.046962257406383</v>
+        <v>1.846361858394008</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.65933864529228</v>
+        <v>0.7301340638341307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.180105053982985</v>
+        <v>2.124689472144135</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.427626722353683</v>
+        <v>1.437774177349215</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.412231969602491</v>
+        <v>0.5009557498382555</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.20894207303834</v>
+        <v>1.225013494347892</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.580745987584848</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.812641021426907</v>
+        <v>-2.812641021426905</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.379614054450567</v>
@@ -1092,7 +1092,7 @@
         <v>-1.511462314906005</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1113055967591009</v>
+        <v>0.1113055967590995</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.120144379508323</v>
+        <v>0.9982555287660054</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.393765965744937</v>
+        <v>-6.887177449428643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.057764068290055</v>
+        <v>-7.511149403702951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.919319874844266</v>
+        <v>3.443125715466901</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.642554683399569</v>
+        <v>-3.597327766295941</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4728088481282859</v>
+        <v>-0.241562747233082</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.528941413337728</v>
+        <v>3.356692045161648</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.184837134706729</v>
+        <v>-4.708221629449431</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.481492952076967</v>
+        <v>-2.860017240438732</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.79130005630035</v>
+        <v>11.67629249231781</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.686139660217843</v>
+        <v>1.906426775581356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.410646388452789</v>
+        <v>1.32543736455631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.03086427809477</v>
+        <v>11.6753804561095</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.588233832127568</v>
+        <v>2.800477882946036</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.151606674702151</v>
+        <v>6.325984875180228</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.30755627226371</v>
+        <v>10.20050163681888</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.104994800445552</v>
+        <v>1.105696536390781</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.89736774485429</v>
+        <v>2.609839599166292</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2613908319062967</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2848783181224974</v>
+        <v>-0.2848783181224973</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.598320315527021</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2105518263866888</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.01550524710643972</v>
+        <v>0.01550524710643952</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.08331159982229905</v>
+        <v>0.04995772083976384</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5767563572448328</v>
+        <v>-0.5572018688614926</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5801458459800988</v>
+        <v>-0.6044851540433536</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3750956711905092</v>
+        <v>0.506719211166529</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6060938414480366</v>
+        <v>-0.5781243815556346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08728870731974284</v>
+        <v>-0.06674386023294872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3739340961489104</v>
+        <v>0.3574168058592061</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4854944695225853</v>
+        <v>-0.5266746376877639</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2936879572104291</v>
+        <v>-0.3264406304184771</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.68102725325127</v>
+        <v>1.488190063636836</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2079694354210223</v>
+        <v>0.2869087006411559</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2085322572542986</v>
+        <v>0.1796784885245997</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.766294154897307</v>
+        <v>4.042156624651137</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8995372164370656</v>
+        <v>0.9686594147323287</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.997265270991723</v>
+        <v>2.163246635012527</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.705686381746802</v>
+        <v>1.807059209412458</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2102039737322511</v>
+        <v>0.1960481177643737</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5236923833241066</v>
+        <v>0.4728001707574181</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.869425572968597</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.9246728919266936</v>
+        <v>-0.9246728919266929</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.680702727270726</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.748307537583349</v>
+        <v>-7.497239087951546</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.335576341137693</v>
+        <v>-5.126235925559715</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.684394844720886</v>
+        <v>-8.311138346595781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.21226326606442</v>
+        <v>-4.416801882999025</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.06761015442237508</v>
+        <v>0.2636433312384429</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.053456286397516</v>
+        <v>-4.062854772987277</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.350994236427705</v>
+        <v>-4.486800146254264</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.160973923567057</v>
+        <v>-1.561682975486215</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.016379458966442</v>
+        <v>-4.930446454719407</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.46100949148429</v>
+        <v>2.381265581129733</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.836802387412041</v>
+        <v>3.449800234309672</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.088288623151757</v>
+        <v>2.294737178785685</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.927284371373907</v>
+        <v>2.099274319739012</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.839593346336518</v>
+        <v>7.856620338359094</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.746669113607682</v>
+        <v>2.636428299695378</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.203479869222575</v>
+        <v>1.097994763073345</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.742634241139374</v>
+        <v>4.580658288739856</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9263340160825959</v>
+        <v>0.8772070627982335</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.7007385495841587</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1674548143928751</v>
+        <v>-0.167454814392875</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2036394941549812</v>
@@ -1411,7 +1411,7 @@
         <v>0.1962505207222831</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2762528261641198</v>
+        <v>-0.2762528261641199</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5099702966377357</v>
+        <v>-0.5562059113988322</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4073061574577009</v>
+        <v>-0.3882456277556223</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.66699767128096</v>
+        <v>-0.6396919431164436</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5802971173853102</v>
+        <v>-0.5907369595012758</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0626203677157019</v>
+        <v>0.006320056422551398</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5686012935997143</v>
+        <v>-0.5799082276548024</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.452736362934419</v>
+        <v>-0.4547219137247678</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1241763415017295</v>
+        <v>-0.1670225696788596</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5307765845498006</v>
+        <v>-0.5304820211423981</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2707510060824828</v>
+        <v>0.2735759068457467</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4369632833519629</v>
+        <v>0.3978038478917109</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2538446552816192</v>
+        <v>0.306045475775545</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5410961779094838</v>
+        <v>0.5590395337078529</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.885782359439431</v>
+        <v>1.961001606662401</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7247267623856006</v>
+        <v>0.7645115110371716</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1724017111589632</v>
+        <v>0.1682347875452053</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6953709886474491</v>
+        <v>0.6468593227475684</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1419985939562167</v>
+        <v>0.1560918500605148</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-4.441799884447187</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-6.000059938915858</v>
+        <v>-6.000059938915859</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.030315692421667</v>
+        <v>-8.912871476386862</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.902890483026511</v>
+        <v>-9.955732043717163</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.31113567191309</v>
+        <v>-11.404810789109</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.726008751455862</v>
+        <v>-2.152831138294435</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.208108609397009</v>
+        <v>-8.374083017572701</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.799099505439782</v>
+        <v>-10.2276431675358</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.846908342533923</v>
+        <v>-3.945949217343648</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.849152897130638</v>
+        <v>-7.722427274985525</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.0995172010205</v>
+        <v>-9.258678965648603</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.700187637079408</v>
+        <v>1.746939305280587</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.2680045813153123</v>
+        <v>0.2917134211659174</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.298934647473336</v>
+        <v>-1.34198315034992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.158443469937716</v>
+        <v>7.7450217487832</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.4601735971417857</v>
+        <v>-0.5449682498725059</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.142343773332205</v>
+        <v>-2.95713881860442</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.460122053836048</v>
+        <v>3.23405327955692</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.314199859256681</v>
+        <v>-1.636430115401565</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.235581687015538</v>
+        <v>-3.151724895426554</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.5657006730797178</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.7641582318573517</v>
+        <v>-0.7641582318573518</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7024509954109316</v>
+        <v>-0.692876173237804</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7732698534920125</v>
+        <v>-0.7642647750671528</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8530652603458572</v>
+        <v>-0.8467395125915687</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3028494865878585</v>
+        <v>-0.3041088315659953</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9173624959010829</v>
+        <v>-0.9311514134475961</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4037040479859215</v>
+        <v>-0.4043720014384685</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7664558966050742</v>
+        <v>-0.7775481610488761</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8932251192769035</v>
+        <v>-0.8941168879752114</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.314011422346912</v>
+        <v>0.2863334574381688</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.007721397906218909</v>
+        <v>0.1186747807123927</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1059965453866155</v>
+        <v>-0.08192063816076822</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.162387877658605</v>
+        <v>1.930541679374571</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0937201873478479</v>
+        <v>0.01588469353139095</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6268604214141614</v>
+        <v>-0.7304822991441309</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6291384586456832</v>
+        <v>0.5318929033041693</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1751924685099207</v>
+        <v>-0.221045180273555</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.5110233529682586</v>
+        <v>-0.4662869583788853</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>5.68629076727549</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.002224782772801</v>
+        <v>3.002224782772797</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.40149555647305</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.164892162044352</v>
+        <v>-1.120982355539457</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.347949217082422</v>
+        <v>-1.518835609942845</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.224628841270871</v>
+        <v>-2.334861269665919</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.3143610888828172</v>
+        <v>0.02841230563579311</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.1016083290876615</v>
+        <v>0.3390369759792108</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.065248600277259</v>
+        <v>-1.091447087908431</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.4947833125358616</v>
+        <v>0.9525971562724688</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.8827516254789931</v>
+        <v>1.154052940841728</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.5936954933458112</v>
+        <v>-0.3682238290803284</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.149277577993061</v>
+        <v>8.978925132576306</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.538579987798254</v>
+        <v>8.147977248017654</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.568729043028745</v>
+        <v>6.334341479925203</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.22191467981158</v>
+        <v>9.9864891603833</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.00600565257685</v>
+        <v>11.26672479280822</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.027692935410741</v>
+        <v>7.127887310201634</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.895824335259307</v>
+        <v>8.093476740319604</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.271414871053121</v>
+        <v>8.657321087679119</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.588932099327858</v>
+        <v>5.782891755237936</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.7420292656981917</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3917736081739637</v>
+        <v>0.3917736081739631</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5892734256302232</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1417450306517735</v>
+        <v>-0.1773575456838069</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1529523969082527</v>
+        <v>-0.1763507559899465</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2383456559808287</v>
+        <v>-0.2351261935618933</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.007291545475375706</v>
+        <v>-0.04177509540156002</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.04626961603171686</v>
+        <v>0.02813892816908453</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1226704506745283</v>
+        <v>-0.1235015370617298</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02475291159884316</v>
+        <v>0.09014177301636885</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.09622352533527938</v>
+        <v>0.1150872781014768</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.06195053408967388</v>
+        <v>-0.06704813128358832</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.687892771937624</v>
+        <v>1.627371330490103</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.661121606259595</v>
+        <v>1.474897706224128</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.286192561553122</v>
+        <v>1.262999880378657</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.809614549134634</v>
+        <v>1.79547596906821</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.014568735347482</v>
+        <v>2.227276260331163</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.313697724765389</v>
+        <v>1.353573581514146</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.328870473998734</v>
+        <v>1.301301955900829</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.423319536812161</v>
+        <v>1.4866153601426</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.9337779547708976</v>
+        <v>1.042190944088613</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.1895143247243512</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.793425934095481</v>
+        <v>3.79342593409548</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.720329016709496</v>
@@ -1948,7 +1948,7 @@
         <v>-1.530281370692216</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.132891788976098</v>
+        <v>2.132891788976099</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7171059293597347</v>
+        <v>-0.2350758047206088</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.975126049741256</v>
+        <v>-5.820451912182603</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.69743520750902</v>
+        <v>-2.555033817695614</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.963852421065411</v>
+        <v>2.274613396079409</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.960361690659671</v>
+        <v>-1.841120059264572</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.480039398668885</v>
+        <v>1.469419785452807</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.72019066149015</v>
+        <v>1.590010784608345</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.233571657968707</v>
+        <v>-3.268460913133695</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.2605279578323877</v>
+        <v>0.1109065543938338</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.490010510456175</v>
+        <v>5.753748315982113</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.53339978129261</v>
+        <v>-0.8845478860484124</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.600517989390059</v>
+        <v>3.781941109405276</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.161275674909207</v>
+        <v>7.417681465383062</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.438104447423331</v>
+        <v>2.563923499015568</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.01255101282356</v>
+        <v>5.892167868577303</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.722196079994275</v>
+        <v>5.747524675130749</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.3107329252633762</v>
+        <v>0.2045521451653544</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.178944216688716</v>
+        <v>3.998445264794014</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.2769738145486071</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3860434990101769</v>
+        <v>0.3860434990101772</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07237314095562837</v>
+        <v>-0.03737134618265905</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.673793947067766</v>
+        <v>-0.6647339800108473</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3097925840769176</v>
+        <v>-0.3102505691733706</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3584756731855796</v>
+        <v>0.4343074863785342</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4075397773835653</v>
+        <v>-0.390033186189205</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2666105256965474</v>
+        <v>0.2629108196299191</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2574387705342892</v>
+        <v>0.2512205805342778</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4896363865280036</v>
+        <v>-0.5149787417704991</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.03711822290579162</v>
+        <v>0.01907430090985785</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.006291714929065</v>
+        <v>0.9455473379499219</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.08243433193891017</v>
+        <v>-0.1260647608404045</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5944242752433956</v>
+        <v>0.635258929710431</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.621442602516508</v>
+        <v>2.608213948613693</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.971587086009247</v>
+        <v>0.9711580146480397</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.415208640431942</v>
+        <v>2.070340834113546</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.237906122901774</v>
+        <v>1.210731224185233</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.08641498545857866</v>
+        <v>0.0412399167248255</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8956332322190169</v>
+        <v>0.8579750739301005</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.764810224623719</v>
+        <v>-5.639096828245717</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.499287856748719</v>
+        <v>-4.525162433011007</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.043323584323561</v>
+        <v>-5.132026525063278</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.225948962023135</v>
+        <v>-5.071288420282262</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.172605300734046</v>
+        <v>-4.99312942412628</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.195628317192331</v>
+        <v>-4.306260568676125</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.66186951103371</v>
+        <v>-4.775437078964857</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.020815413942994</v>
+        <v>-4.114206993984628</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.844232393372449</v>
+        <v>-4.025739939720503</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.240947032359636</v>
+        <v>-1.338197568232015</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.3517667278096482</v>
+        <v>0.01904320778097516</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.5400445662880352</v>
+        <v>-0.5446575965672609</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.5985119618318628</v>
+        <v>-0.6940455711156907</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.8066920482617488</v>
+        <v>-0.7204492928267427</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.177576034833991</v>
+        <v>0.04497187199136741</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.653916528059565</v>
+        <v>-1.598735594890502</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.7435835221570238</v>
+        <v>-0.944148619260345</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.8624373252290094</v>
+        <v>-0.7960948598326878</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7085872730525592</v>
+        <v>-0.7236135144091294</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5684758935493296</v>
+        <v>-0.583718866078432</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6486614147791128</v>
+        <v>-0.6631790861462873</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6883905824789546</v>
+        <v>-0.6993062781431729</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6891458701685784</v>
+        <v>-0.6689331166383649</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5625364236242936</v>
+        <v>-0.5755593265591582</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6431519320891601</v>
+        <v>-0.6626353592402768</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5608071930339814</v>
+        <v>-0.5669881823211634</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5400140449401334</v>
+        <v>-0.5472274638659268</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2051847626104953</v>
+        <v>-0.232237662065871</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.07303668066247146</v>
+        <v>0.007421801524461321</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.08112033433910933</v>
+        <v>-0.07896869473759344</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1161580012557602</v>
+        <v>-0.1359279727826787</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1526674979999099</v>
+        <v>-0.1209102233836265</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.0410271707537213</v>
+        <v>0.007339444598938923</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.2880067576446353</v>
+        <v>-0.2987586845547184</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1376440806668772</v>
+        <v>-0.1708302652708577</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1537676392635179</v>
+        <v>-0.1406836310194269</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-1.536720328601178</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-1.161704455143672</v>
+        <v>-1.161704455143671</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2.045499331046476</v>
@@ -2367,7 +2367,7 @@
         <v>0.2110543051594284</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.025606280732737</v>
+        <v>1.025606280732738</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.520841919521344</v>
@@ -2376,7 +2376,7 @@
         <v>-0.6508478693768811</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-0.05143282029817023</v>
+        <v>-0.05143282029817162</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.3698227306760911</v>
+        <v>-0.3060146072809452</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.762453625590953</v>
+        <v>-2.750856973222975</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.448193380970904</v>
+        <v>-2.47650110263861</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.9067505875813546</v>
+        <v>0.910144190159095</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.9140746163237965</v>
+        <v>-0.8869481266571416</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.003948199813368013</v>
+        <v>-0.01932737097672992</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.7263625480531394</v>
+        <v>0.6116256003948229</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.452930314741698</v>
+        <v>-1.488518766843942</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.8943166356123131</v>
+        <v>-0.8713981701680923</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.433078320979793</v>
+        <v>2.28886754470397</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.3291758900479451</v>
+        <v>-0.36059276139172</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.1462816326227103</v>
+        <v>0.1647742674671765</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.265399120190098</v>
+        <v>3.210899703866366</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.307878476560527</v>
+        <v>1.405277738053441</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.100288110229168</v>
+        <v>2.086962774589077</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.477733057242218</v>
+        <v>2.455926558752768</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.2181704091557044</v>
+        <v>0.1922362704515032</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.8067437980628348</v>
+        <v>0.77448228048832</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.2071589272419076</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.1566045845952788</v>
+        <v>-0.1566045845952787</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.3941000144140157</v>
@@ -2472,7 +2472,7 @@
         <v>0.04066317863957342</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1976003824030059</v>
+        <v>0.1976003824030062</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2419022627564087</v>
@@ -2481,7 +2481,7 @@
         <v>-0.1035226411710211</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.008180807913281952</v>
+        <v>-0.008180807913282172</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.04359367238145958</v>
+        <v>-0.03871192750864966</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3378779483048957</v>
+        <v>-0.3419092757521676</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3028471386607134</v>
+        <v>-0.3029765470824664</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1513190900727625</v>
+        <v>0.1541780052959179</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1629660343857974</v>
+        <v>-0.1542498036187833</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.006510805905610513</v>
+        <v>-0.002010973127937562</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1033462787980132</v>
+        <v>0.09462382815820382</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2161079969521281</v>
+        <v>-0.2214652650333837</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1327985576265871</v>
+        <v>-0.1310462597567844</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3672104583249788</v>
+        <v>0.3403780996894968</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.04370450515936641</v>
+        <v>-0.04773096634819851</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.02429011566334081</v>
+        <v>0.02822079972939374</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7013451654478698</v>
+        <v>0.6850285017382679</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2905886072128724</v>
+        <v>0.30093688469953</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4438301311362192</v>
+        <v>0.4551968594113229</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4295943386808087</v>
+        <v>0.4146062051078038</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.04098704947174107</v>
+        <v>0.03446849010814568</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1380816793172147</v>
+        <v>0.132005575461982</v>
       </c>
     </row>
     <row r="58">
